--- a/1_Requirements/Gantt Chart.xlsx
+++ b/1_Requirements/Gantt Chart.xlsx
@@ -226,7 +226,7 @@
     <t>Report and documentation</t>
   </si>
   <si>
-    <t>Server Room Temperature Monitering System</t>
+    <t>Wiper Control System</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1157,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1169,7 +1169,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1447,7 +1447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1461,23 +1461,23 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:F5"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.68359375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="25.89453125" customWidth="1"/>
+    <col min="3" max="3" width="17.3125" customWidth="1"/>
+    <col min="4" max="4" width="10.41796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.41796875" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="8" max="34" width="2.5546875" customWidth="1"/>
-    <col min="35" max="35" width="60.5546875" customWidth="1"/>
-    <col min="36" max="63" width="2.5546875" customWidth="1"/>
-    <col min="68" max="69" width="10.21875"/>
+    <col min="7" max="7" width="6.1015625" hidden="1" customWidth="1"/>
+    <col min="8" max="34" width="2.5234375" customWidth="1"/>
+    <col min="35" max="35" width="60.5234375" customWidth="1"/>
+    <col min="36" max="63" width="2.5234375" customWidth="1"/>
+    <col min="68" max="69" width="10.20703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="30" customHeight="1">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="80">
-        <v>44655</v>
+        <v>44676</v>
       </c>
       <c r="E3" s="81"/>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="H4" s="77">
         <f>H5</f>
-        <v>44655</v>
+        <v>44676</v>
       </c>
       <c r="I4" s="78"/>
       <c r="J4" s="78"/>
@@ -1539,7 +1539,7 @@
       <c r="N4" s="79"/>
       <c r="O4" s="77">
         <f>O5</f>
-        <v>44662</v>
+        <v>44683</v>
       </c>
       <c r="P4" s="78"/>
       <c r="Q4" s="78"/>
@@ -1549,7 +1549,7 @@
       <c r="U4" s="79"/>
       <c r="V4" s="77">
         <f>V5</f>
-        <v>44669</v>
+        <v>44690</v>
       </c>
       <c r="W4" s="78"/>
       <c r="X4" s="78"/>
@@ -1559,7 +1559,7 @@
       <c r="AB4" s="79"/>
       <c r="AC4" s="77">
         <f>AC5</f>
-        <v>44676</v>
+        <v>44697</v>
       </c>
       <c r="AD4" s="78"/>
       <c r="AE4" s="78"/>
@@ -1607,115 +1607,115 @@
       <c r="F5" s="76"/>
       <c r="H5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44655</v>
+        <v>44676</v>
       </c>
       <c r="I5" s="10">
         <f>H5+1</f>
-        <v>44656</v>
+        <v>44677</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" ref="J5:AI5" si="0">I5+1</f>
-        <v>44657</v>
+        <v>44678</v>
       </c>
       <c r="K5" s="10">
         <f>J5+1</f>
-        <v>44658</v>
+        <v>44679</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="0"/>
-        <v>44659</v>
+        <v>44680</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>44660</v>
+        <v>44681</v>
       </c>
       <c r="N5" s="12">
         <f t="shared" si="0"/>
-        <v>44661</v>
+        <v>44682</v>
       </c>
       <c r="O5" s="11">
         <f>N5+1</f>
-        <v>44662</v>
+        <v>44683</v>
       </c>
       <c r="P5" s="10">
         <f>O5+1</f>
-        <v>44663</v>
+        <v>44684</v>
       </c>
       <c r="Q5" s="10">
         <f t="shared" si="0"/>
-        <v>44664</v>
+        <v>44685</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" si="0"/>
-        <v>44665</v>
+        <v>44686</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="0"/>
-        <v>44666</v>
+        <v>44687</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" si="0"/>
-        <v>44667</v>
+        <v>44688</v>
       </c>
       <c r="U5" s="12">
         <f t="shared" si="0"/>
-        <v>44668</v>
+        <v>44689</v>
       </c>
       <c r="V5" s="11">
         <f>U5+1</f>
-        <v>44669</v>
+        <v>44690</v>
       </c>
       <c r="W5" s="10">
         <f>V5+1</f>
-        <v>44670</v>
+        <v>44691</v>
       </c>
       <c r="X5" s="10">
         <f t="shared" si="0"/>
-        <v>44671</v>
+        <v>44692</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="0"/>
-        <v>44672</v>
+        <v>44693</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" si="0"/>
-        <v>44673</v>
+        <v>44694</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" si="0"/>
-        <v>44674</v>
+        <v>44695</v>
       </c>
       <c r="AB5" s="12">
         <f t="shared" si="0"/>
-        <v>44675</v>
+        <v>44696</v>
       </c>
       <c r="AC5" s="11">
         <f>AB5+1</f>
-        <v>44676</v>
+        <v>44697</v>
       </c>
       <c r="AD5" s="10">
         <f>AC5+1</f>
-        <v>44677</v>
+        <v>44698</v>
       </c>
       <c r="AE5" s="10">
         <f t="shared" si="0"/>
-        <v>44678</v>
+        <v>44699</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" si="0"/>
-        <v>44679</v>
+        <v>44700</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" si="0"/>
-        <v>44680</v>
+        <v>44701</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" si="0"/>
-        <v>44681</v>
+        <v>44702</v>
       </c>
       <c r="AI5" s="12">
         <f t="shared" si="0"/>
-        <v>44682</v>
+        <v>44703</v>
       </c>
       <c r="AJ5" s="11"/>
       <c r="AK5" s="10"/>
@@ -2129,15 +2129,15 @@
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="56">
-        <v>44655</v>
+        <v>44677</v>
       </c>
       <c r="E10" s="56">
-        <v>44667</v>
+        <v>44680</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -2275,15 +2275,15 @@
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="57">
-        <v>44661</v>
+        <v>44677</v>
       </c>
       <c r="E12" s="57">
-        <v>44666</v>
+        <v>44681</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -2349,10 +2349,10 @@
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="57">
-        <v>44663</v>
+        <v>44679</v>
       </c>
       <c r="E13" s="57">
-        <v>44669</v>
+        <v>44685</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
@@ -2495,15 +2495,15 @@
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="58">
-        <v>44661</v>
+        <v>44682</v>
       </c>
       <c r="E15" s="58">
-        <v>44670</v>
+        <v>44694</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
@@ -2569,15 +2569,15 @@
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="58">
-        <v>44666</v>
+        <v>44691</v>
       </c>
       <c r="E16" s="58">
-        <v>44672</v>
+        <v>44694</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
@@ -2715,15 +2715,15 @@
       </c>
       <c r="C18" s="68"/>
       <c r="D18" s="59">
-        <v>44666</v>
+        <v>44691</v>
       </c>
       <c r="E18" s="59">
-        <v>44672</v>
+        <v>44694</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
@@ -2789,15 +2789,15 @@
       </c>
       <c r="C19" s="68"/>
       <c r="D19" s="59">
-        <v>44671</v>
+        <v>44687</v>
       </c>
       <c r="E19" s="59">
-        <v>44673</v>
+        <v>44694</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
@@ -3075,10 +3075,10 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.9"/>
   <cols>
-    <col min="1" max="1" width="87.109375" style="38" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="87.1015625" style="38" customWidth="1"/>
+    <col min="2" max="16384" width="9.1015625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
@@ -3119,7 +3119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6">
+    <row r="9" spans="1:2" ht="43.2">
       <c r="A9" s="43" t="s">
         <v>19</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="72">
+    <row r="16" spans="1:2" ht="57.6">
       <c r="A16" s="43" t="s">
         <v>14</v>
       </c>
@@ -3173,6 +3173,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE49C3B21729434C834F03C10CFD3EE7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dda2e0ad570191573d4862d24315b090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f90b35a-c7f5-466e-bdce-aad1192bcad3" xmlns:ns3="abad16e2-75b5-4d02-890c-30395bfef711" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="822e9fa36678c5abd975587ddd4d1967" ns2:_="" ns3:_="">
     <xsd:import namespace="3f90b35a-c7f5-466e-bdce-aad1192bcad3"/>
@@ -3383,15 +3392,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3399,6 +3399,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFEB13B-E464-42B4-95B6-1B297F6F0D89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A49C0C78-21B3-4F87-B703-D4DFD6AB582D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3417,14 +3425,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFEB13B-E464-42B4-95B6-1B297F6F0D89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED231826-376F-4402-BA4A-6738EDB3C2A6}">
   <ds:schemaRefs>

--- a/1_Requirements/Gantt Chart.xlsx
+++ b/1_Requirements/Gantt Chart.xlsx
@@ -1157,7 +1157,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1169,7 +1169,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1447,7 +1447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1462,7 +1462,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -3173,15 +3173,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE49C3B21729434C834F03C10CFD3EE7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dda2e0ad570191573d4862d24315b090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f90b35a-c7f5-466e-bdce-aad1192bcad3" xmlns:ns3="abad16e2-75b5-4d02-890c-30395bfef711" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="822e9fa36678c5abd975587ddd4d1967" ns2:_="" ns3:_="">
     <xsd:import namespace="3f90b35a-c7f5-466e-bdce-aad1192bcad3"/>
@@ -3392,6 +3383,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3399,14 +3399,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFEB13B-E464-42B4-95B6-1B297F6F0D89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A49C0C78-21B3-4F87-B703-D4DFD6AB582D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3425,6 +3417,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFEB13B-E464-42B4-95B6-1B297F6F0D89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED231826-376F-4402-BA4A-6738EDB3C2A6}">
   <ds:schemaRefs>
